--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_10_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_10_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36718.05644606936</v>
+        <v>7306893.232767798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36718.05644606936</v>
+        <v>7306893.232767798</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31170.22934268077</v>
+        <v>2270690.929401117</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31170.22934268077</v>
+        <v>2270690.929401117</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495303704.058877</v>
+        <v>59045836.53894883</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12187.58944383297</v>
+        <v>1322692.433134712</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23770.77795641422</v>
+        <v>2550585.047458991</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35353.96646899545</v>
+        <v>3778477.661783272</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>49513.2370244753</v>
+        <v>4981923.073808528</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>63424.63687288438</v>
+        <v>6136042.215126714</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>77336.03672129347</v>
+        <v>7290161.356444896</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>91247.43656970256</v>
+        <v>8444280.497763075</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>105158.8364181117</v>
+        <v>9598399.639081253</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>119072.176468541</v>
+        <v>10752597.57635903</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>132985.1205593744</v>
+        <v>11906716.71767721</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>146898.0646502078</v>
+        <v>13060835.85899538</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>158275.3486202784</v>
+        <v>14239029.04382962</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>169900.1073378238</v>
+        <v>15466469.70341133</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>182587.1214100107</v>
+        <v>16547123.43326936</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>195274.1354821977</v>
+        <v>17627777.16312739</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>217</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>626</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
